--- a/medicine/Sexualité et sexologie/C'est_la_queue_du_chat_qui_m'électrise/C'est_la_queue_du_chat_qui_m'électrise.xlsx
+++ b/medicine/Sexualité et sexologie/C'est_la_queue_du_chat_qui_m'électrise/C'est_la_queue_du_chat_qui_m'électrise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%27est_la_queue_du_chat_qui_m%27%C3%A9lectrise</t>
+          <t>C'est_la_queue_du_chat_qui_m'électrise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est la queue du chat qui m'électrise (Hausfrauen-Report international) est un film ouest-allemand réalisé par Ernst Hofbauer, tourné en 1972 et sorti en 1973 en RFA, l'année suivante en France[1] ,[2]. Il s'inscrit dans une série de six Hausfrauen-Report parus sur les écrans entre 1971 et 1978[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la queue du chat qui m'électrise (Hausfrauen-Report international) est un film ouest-allemand réalisé par Ernst Hofbauer, tourné en 1972 et sorti en 1973 en RFA, l'année suivante en France ,. Il s'inscrit dans une série de six Hausfrauen-Report parus sur les écrans entre 1971 et 1978.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%27est_la_queue_du_chat_qui_m%27%C3%A9lectrise</t>
+          <t>C'est_la_queue_du_chat_qui_m'électrise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Budapest, Londres, Madrid, New-York, Paris et Munich: Un reporter part à la rencontre d'épouses plus ou moins satisfaites par leur vie conjugale et extra-conjugale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%27est_la_queue_du_chat_qui_m%27%C3%A9lectrise</t>
+          <t>C'est_la_queue_du_chat_qui_m'électrise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original allemand : Hausfrauen-Report International
 Titre français : C'est la queue du chat qui m'électrise
@@ -559,7 +575,7 @@
 Dates de sortie :
 Allemagne de l'Ouest : 25 janvier 1973
 France : 9 octobre 1974
-Interdiction aux moins de 18 ans à sa sortie en salles en France[3].</t>
+Interdiction aux moins de 18 ans à sa sortie en salles en France.</t>
         </is>
       </c>
     </row>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%27est_la_queue_du_chat_qui_m%27%C3%A9lectrise</t>
+          <t>C'est_la_queue_du_chat_qui_m'électrise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gernot Mohner : Bernt Mittler
 Angelika Baumgart : Brigitte Mittler
